--- a/Subnets/6.xlsx
+++ b/Subnets/6.xlsx
@@ -8,57 +8,204 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa1849326a6bb03d/Archive/Documents/Python/Ngrok Minecraft Server Finder/Ngrok-Minecraft-Server-Finder/Subnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363C2A8B-EF89-43CF-A914-C0FBC3F0CC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_084D67C2051929F58A38975B64C7828475F7EF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{029A5930-C9F8-472A-B4A6-95C17A3ECBBD}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="1500" windowWidth="18120" windowHeight="12840" xr2:uid="{A7DA351B-5054-46D3-A107-D2E4AF7A5C5E}"/>
+    <workbookView xWindow="10035" yWindow="615" windowWidth="18120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Subnet</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Motd</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Max</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+  <si>
+    <t>1.17.1</t>
+  </si>
+  <si>
+    <t>A Vanilla Minecraft Server</t>
+  </si>
+  <si>
+    <t>Airplane 1.17.1</t>
+  </si>
+  <si>
+    <t>A Minecraft Server</t>
+  </si>
+  <si>
+    <t>1.16.5</t>
+  </si>
+  <si>
+    <t>Spigot 1.17.1</t>
+  </si>
+  <si>
+    <t>BBW V1.17.1-1.17.3 Java/Bedrock</t>
+  </si>
+  <si>
+    <t>amepy - That time WE made a mc isekai</t>
+  </si>
+  <si>
+    <t>Valhelsia 3 Server</t>
+  </si>
+  <si>
+    <t>Medieval Minecraft [FABRIC]</t>
+  </si>
+  <si>
+    <t>Spigot 1.17</t>
+  </si>
+  <si>
+    <t>Sus</t>
+  </si>
+  <si>
+    <t>1.12.2</t>
+  </si>
+  <si>
+    <t>Minecraft Eternal 1.5</t>
+  </si>
+  <si>
+    <t>ASSX - Error Project</t>
+  </si>
+  <si>
+    <t>siiilkboba - лохи</t>
+  </si>
+  <si>
+    <t>Paper 1.12.2</t>
+  </si>
+  <si>
+    <t>§r§0Unoffician §fRu§9ss§cian §62B2T §3server</t>
+  </si>
+  <si>
+    <t>Spigot 1.7.10</t>
+  </si>
+  <si>
+    <t>Server dos crias</t>
+  </si>
+  <si>
+    <t>BungeeCord 1.8.x-1.17.x</t>
+  </si>
+  <si>
+    <t>§1RedZ1 MC_Server</t>
+  </si>
+  <si>
+    <t>fem-partiy(AGAZ)</t>
+  </si>
+  <si>
+    <t>Paper 1.17.1</t>
+  </si>
+  <si>
+    <t>No More Then 15</t>
+  </si>
+  <si>
+    <t>§b¡Bienvenidos a NeoCraft!§r
+§6Forge Server§d [V1.17.1]</t>
+  </si>
+  <si>
+    <t>Season 11</t>
+  </si>
+  <si>
+    <t>1.16.1</t>
+  </si>
+  <si>
+    <t>Papa's Minecraft Server</t>
+  </si>
+  <si>
+    <t>Azaserver</t>
+  </si>
+  <si>
+    <t>1.7.10</t>
+  </si>
+  <si>
+    <t>§lThe 1.7.10 Pack Server v0.10.2</t>
+  </si>
+  <si>
+    <t>Mohist 1.12.2</t>
+  </si>
+  <si>
+    <t>§e§lMinecraft Network §6Now with JoinEventsPro!
+§6This is a customizable second line of the MOTD.</t>
+  </si>
+  <si>
+    <t>The Diamond Hoe Server</t>
+  </si>
+  <si>
+    <t>21w42a</t>
+  </si>
+  <si>
+    <t>§r                §8§l[§b§l 101sec §f§lNetwork §8§l]
+§r          §c§lALL OF FABRIC 3 §r§6(v2.8.4)</t>
+  </si>
+  <si>
+    <t>§9Clownatine SMP v4 is §2Online!</t>
+  </si>
+  <si>
+    <t>Better Minecraft [FORGE]</t>
+  </si>
+  <si>
+    <t>Always rember what they took from you</t>
+  </si>
+  <si>
+    <t>RAWR</t>
+  </si>
+  <si>
+    <t>PachaLand!</t>
+  </si>
+  <si>
+    <t>Spigot 1.16.5</t>
+  </si>
+  <si>
+    <t>1.14.2</t>
+  </si>
+  <si>
+    <t>zGaab - asf admasods escola</t>
+  </si>
+  <si>
+    <t>Engineers Life 2 Server</t>
+  </si>
+  <si>
+    <t>ESG - Security</t>
+  </si>
+  <si>
+    <t>A Pixelmon Server</t>
+  </si>
+  <si>
+    <t>Poggers or something idk</t>
+  </si>
+  <si>
+    <t>o7 DEEZ NUTZ</t>
+  </si>
+  <si>
+    <t>cauldron,craftbukkit,mcpc,fml,forge 1.7.10</t>
+  </si>
+  <si>
+    <t>A Quicksand Sinking Server
+mfqm.freeddns.org - 1.7.10</t>
+  </si>
+  <si>
+    <t>ð</t>
+  </si>
+  <si>
+    <t>Welcome to the dohghouse</t>
+  </si>
+  <si>
+    <t>§f§l(§4§lHate's §e§l1.17.1 §b§lM§d§lo§b§ld§d§ld§b§le§d§ld §b§lSurvival Server§f§l)§r
+§8§l[§f§lON FORGE§7§8§l] §f§l"§b§lJust For Fun Cuz Why Not§f§l"</t>
+  </si>
+  <si>
+    <t>EzraServer</t>
+  </si>
+  <si>
+    <t>1.18 experimental snapshot 5</t>
+  </si>
+  <si>
+    <t>TheGreatYambino - new adventure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,21 +214,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,14 +255,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,37 +579,1664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C5A902-0843-415B-9F8F-1E3F6E62BDB0}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>10994</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>11826</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>12611</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>13202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>13703</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>14920</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17097</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>17312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>19361</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>19498</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>15800</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>13059</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10040</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10261</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10616</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11118</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11706</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12091</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12142</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12886</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>13760</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15582</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>16025</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16698</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>17065</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17201</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17682</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>18569</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>10023</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>10207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>10700</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>10799</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>11018</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>11538</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>11985</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>11986</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>12484</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>12716</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>13358</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>13721</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>13767</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>14375</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>14426</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>15758</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>17523</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>17700</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>18107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>18426</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>5</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>19332</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>19547</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>19905</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>13412</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>13726</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>10029</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>11594</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>18092</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>13560</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>11177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>12165</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>12823</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>13582</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>13669</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>14244</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>17745</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>17942</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>18204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>19857</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15275</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>6</v>
+      </c>
+      <c r="B72" s="2">
+        <v>16835</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1">
+        <v>17336</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1">
+        <v>18740</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>10817</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>10249</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>10981</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>12273</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>14720</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>16459</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>18814</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>11546</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F83">
+    <sortCondition ref="C1:C83"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>